--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875D3528-BC01-4838-AC8A-0C88C34B6261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F43CF9-87D5-47EA-94AD-2E1F19F745B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Commands" sheetId="1" r:id="rId1"/>
     <sheet name="Events" sheetId="2" r:id="rId2"/>
     <sheet name="Scenarios" sheetId="3" r:id="rId3"/>
-    <sheet name="OS &amp; Microarchitecture" sheetId="4" r:id="rId4"/>
+    <sheet name="Script Engine" sheetId="5" r:id="rId4"/>
+    <sheet name="OS &amp; Microarchitecture" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -701,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1154,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDBEC5-BA44-43C5-83E8-8F3FFC7E4ED1}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1264,6 +1265,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606BE273-79EC-4408-B20F-D0B676D70C35}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF61201-8400-4A40-B3F4-F0499175D62E}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F43CF9-87D5-47EA-94AD-2E1F19F745B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A956CC-C422-4C3D-980D-5B50474FA248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>Command</t>
   </si>
@@ -229,9 +229,6 @@
     <t>!u !u2</t>
   </si>
   <si>
-    <t xml:space="preserve"> .logopen</t>
-  </si>
-  <si>
     <t>.logclose</t>
   </si>
   <si>
@@ -323,6 +320,12 @@
   </si>
   <si>
     <t>Termination</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>.logopen</t>
   </si>
 </sst>
 </file>
@@ -379,13 +382,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -732,228 +738,365 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
@@ -969,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB83F1B-E0B8-42EF-894C-5B1D5D7F5A0B}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A4" sqref="A4:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -990,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1017,12 +1160,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1097,51 +1240,46 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1155,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDBEC5-BA44-43C5-83E8-8F3FFC7E4ED1}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -1176,87 +1314,87 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A956CC-C422-4C3D-980D-5B50474FA248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C227AE0-D29A-4F20-8E1A-FB977CDDDB91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Commands" sheetId="1" r:id="rId1"/>
-    <sheet name="Events" sheetId="2" r:id="rId2"/>
+    <sheet name="Automatic Tests" sheetId="2" r:id="rId2"/>
     <sheet name="Scenarios" sheetId="3" r:id="rId3"/>
     <sheet name="Script Engine" sheetId="5" r:id="rId4"/>
     <sheet name="OS &amp; Microarchitecture" sheetId="4" r:id="rId5"/>
+    <sheet name="Abbreviation " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
     <t>Command</t>
   </si>
@@ -271,12 +272,6 @@
     <t>Mechanisms &amp; Problems</t>
   </si>
   <si>
-    <t>test pause command with scripts and .log* command</t>
-  </si>
-  <si>
-    <t>problem of release versions</t>
-  </si>
-  <si>
     <t>Instrument tons of instructions using i command</t>
   </si>
   <si>
@@ -286,39 +281,12 @@
     <t>Instrument tons of instructions using p command</t>
   </si>
   <si>
-    <t>both disassemblers has problem on ExAllocatePoolWithTag</t>
-  </si>
-  <si>
-    <t>check two or more connection simultaneously to the debugger and VMI-mode</t>
-  </si>
-  <si>
-    <t>check unhook cc hidden breakpoint</t>
-  </si>
-  <si>
-    <t>check the !monitor for two or more breakpoints on a single page</t>
-  </si>
-  <si>
-    <t>check disable breakpoint on exception bitmap when we want to delete the hook</t>
-  </si>
-  <si>
     <t>Monitor any RWX of a special page in use-mode and kernel-mode</t>
   </si>
   <si>
-    <t>check to unload command especially with events enabled</t>
-  </si>
-  <si>
-    <t>check for unallocated pools</t>
-  </si>
-  <si>
-    <t>check to halt with !epthook2</t>
-  </si>
-  <si>
     <t>!epthook2 probably has a problem with Break() in the script engine</t>
   </si>
   <si>
-    <t>test unallocated memory with VisualStudio</t>
-  </si>
-  <si>
     <t>Termination</t>
   </si>
   <si>
@@ -326,13 +294,252 @@
   </si>
   <si>
     <t>.logopen</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Non-KPTI Machine (VMI-Mode)</t>
+  </si>
+  <si>
+    <t>Non-KPTI Machine (Debugger-Mode)</t>
+  </si>
+  <si>
+    <t>Abbreviation </t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>N/N</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>No Need</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>286 (80286)</t>
+  </si>
+  <si>
+    <t>386 (80386)</t>
+  </si>
+  <si>
+    <t>486 (80486)</t>
+  </si>
+  <si>
+    <t>P5 (Pentium)</t>
+  </si>
+  <si>
+    <t>P6 (Pentium Pro, Pentium II)</t>
+  </si>
+  <si>
+    <t>P5 (Pentium MMX)</t>
+  </si>
+  <si>
+    <t>P6 (Pentium III)</t>
+  </si>
+  <si>
+    <t>Intel Core</t>
+  </si>
+  <si>
+    <t>Penryn (die shrink)</t>
+  </si>
+  <si>
+    <t>Nehalem</t>
+  </si>
+  <si>
+    <t>Bonnell</t>
+  </si>
+  <si>
+    <t>Westmere (die shrink)</t>
+  </si>
+  <si>
+    <t>Saltwell (die shrink)</t>
+  </si>
+  <si>
+    <t>Sandy Bridge</t>
+  </si>
+  <si>
+    <t>Ivy Bridge (die shrink)</t>
+  </si>
+  <si>
+    <t>Silvermont</t>
+  </si>
+  <si>
+    <t>Haswell</t>
+  </si>
+  <si>
+    <t>Broadwell (die shrink)</t>
+  </si>
+  <si>
+    <t>Airmont (die shrink)</t>
+  </si>
+  <si>
+    <t>Skylake</t>
+  </si>
+  <si>
+    <t>Goldmont</t>
+  </si>
+  <si>
+    <t>Kaby Lake</t>
+  </si>
+  <si>
+    <t>Coffee Lake</t>
+  </si>
+  <si>
+    <t>Goldmont Plus</t>
+  </si>
+  <si>
+    <t>Palm Cove (Cannon Lake)</t>
+  </si>
+  <si>
+    <t>Whiskey Lake</t>
+  </si>
+  <si>
+    <t>Amber Lake</t>
+  </si>
+  <si>
+    <t>Cascade Lake</t>
+  </si>
+  <si>
+    <t>Comet Lake</t>
+  </si>
+  <si>
+    <t>Sunny Cove (Ice Lake)</t>
+  </si>
+  <si>
+    <t>Cooper Lake</t>
+  </si>
+  <si>
+    <t>Willow Cove (Tiger Lake)</t>
+  </si>
+  <si>
+    <t>Rocket Lake</t>
+  </si>
+  <si>
+    <t>Gracemont</t>
+  </si>
+  <si>
+    <t>Lunar Lake</t>
+  </si>
+  <si>
+    <t>Meteor Lake</t>
+  </si>
+  <si>
+    <t>Cove (Raptor Lake)</t>
+  </si>
+  <si>
+    <t>Golden Cove (Alder Lake)</t>
+  </si>
+  <si>
+    <t>NetBurst (Pentium 4) - (Willamette)</t>
+  </si>
+  <si>
+    <t>NetBurst (Pentium 4) - (Northwood, Gallatin)</t>
+  </si>
+  <si>
+    <r>
+      <t>186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (80186, 80188)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8086</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (8086, 8088)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pentium M (Banias, Dothan) - Enhanced Pentium M (Yonah)</t>
+  </si>
+  <si>
+    <t>NetBurst (Pentium 4, Pentium D) - (Prescott)</t>
+  </si>
+  <si>
+    <t>Tremont (Lakefield, Snow Ridge, Jacobsville, Elkhart Lake, Jasper Lake)</t>
+  </si>
+  <si>
+    <t>Processor Year</t>
+  </si>
+  <si>
+    <t>Microarchitecture (Code Name)</t>
+  </si>
+  <si>
+    <t>Windows 10 20H1</t>
+  </si>
+  <si>
+    <t>N/S</t>
+  </si>
+  <si>
+    <t>Not Supported</t>
+  </si>
+  <si>
+    <t>Test unallocated memory with VisualStudio</t>
+  </si>
+  <si>
+    <t>Check disable breakpoint on exception bitmap when we want to delete the hook</t>
+  </si>
+  <si>
+    <t>Check to unload command especially with events enabled</t>
+  </si>
+  <si>
+    <t>Check for unallocated pools</t>
+  </si>
+  <si>
+    <t>Check to halt with !epthook2</t>
+  </si>
+  <si>
+    <t>Check unhook cc hidden breakpoint</t>
+  </si>
+  <si>
+    <t>Check the !monitor for two or more breakpoints on a single page</t>
+  </si>
+  <si>
+    <t>Both disassemblers has problem on ExAllocatePoolWithTag</t>
+  </si>
+  <si>
+    <t>Problem of release versions</t>
+  </si>
+  <si>
+    <t>Test pause command with scripts and .log* command</t>
+  </si>
+  <si>
+    <t>Check two or more connection simultaneously to the debugger and VMI-mode</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Test "Automatic Tests" with double loaded and unloaded drivers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,19 +562,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -382,14 +607,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -706,403 +936,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="39.73046875" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.06640625" customWidth="1"/>
-    <col min="4" max="4" width="31.46484375" customWidth="1"/>
+    <col min="2" max="2" width="26.06640625" customWidth="1"/>
+    <col min="3" max="3" width="27.796875" customWidth="1"/>
+    <col min="4" max="4" width="30.53125" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" customWidth="1"/>
+    <col min="6" max="6" width="30.796875" customWidth="1"/>
+    <col min="7" max="11" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,7 +1458,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1129,23 +1472,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>96</v>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1291,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDBEC5-BA44-43C5-83E8-8F3FFC7E4ED1}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1303,7 +1646,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1319,82 +1662,87 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1755,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1418,14 +1766,503 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF61201-8400-4A40-B3F4-F0499175D62E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="58.53125" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06866838-075D-4639-95FA-F83C01E494BA}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C227AE0-D29A-4F20-8E1A-FB977CDDDB91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C2B00-B2C6-4703-B758-AFA26E84CFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Commands" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="161">
   <si>
     <t>Command</t>
   </si>
@@ -520,9 +520,6 @@
     <t>Both disassemblers has problem on ExAllocatePoolWithTag</t>
   </si>
   <si>
-    <t>Problem of release versions</t>
-  </si>
-  <si>
     <t>Test pause command with scripts and .log* command</t>
   </si>
   <si>
@@ -533,13 +530,16 @@
   </si>
   <si>
     <t>Test "Automatic Tests" with double loaded and unloaded drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Progress : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,13 +586,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -607,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -622,6 +642,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,21 +964,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="39.73046875" customWidth="1"/>
-    <col min="2" max="2" width="26.06640625" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="30.53125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
     <col min="5" max="5" width="26.59765625" customWidth="1"/>
-    <col min="6" max="6" width="30.796875" customWidth="1"/>
-    <col min="7" max="11" width="9.06640625" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" customWidth="1"/>
+    <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1029,7 +1057,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3"/>
@@ -1037,7 +1065,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3"/>
@@ -1045,7 +1073,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
@@ -1053,7 +1081,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
@@ -1064,7 +1092,9 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
@@ -1072,7 +1102,9 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
@@ -1080,9 +1112,14 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>93</v>
       </c>
@@ -1091,7 +1128,9 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1103,34 +1142,31 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
+      <c r="A16" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1138,23 +1174,37 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1167,22 +1217,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
+      <c r="A20" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
+      <c r="A21" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1190,15 +1234,21 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1212,9 +1262,11 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -1225,22 +1277,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
+      <c r="A25" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>67</v>
+      <c r="A26" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1248,63 +1294,75 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
+      <c r="A28" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
+      <c r="A31" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
+      <c r="A32" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1318,7 +1376,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1332,120 +1390,257 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="3"/>
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>40</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="E58" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="11">
+        <f xml:space="preserve"> ((COUNTA(B2:F56)) / (56 * 5))*100</f>
+        <v>28.928571428571431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,19 +1650,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB83F1B-E0B8-42EF-894C-5B1D5D7F5A0B}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.73046875" customWidth="1"/>
     <col min="2" max="2" width="36.3984375" customWidth="1"/>
-    <col min="3" max="3" width="36.53125" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.19921875" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" customWidth="1"/>
+    <col min="4" max="4" width="41.73046875" customWidth="1"/>
+    <col min="5" max="5" width="40.1328125" customWidth="1"/>
     <col min="6" max="6" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1493,137 +1688,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1634,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDBEC5-BA44-43C5-83E8-8F3FFC7E4ED1}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1662,87 +1802,82 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>158</v>
+      <c r="A10" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1775,8 +1910,8 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="58.53125" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+    <col min="2" max="2" width="58.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2205,13 +2340,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -2251,7 +2386,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C2B00-B2C6-4703-B758-AFA26E84CFBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2D3F1-BD36-4A5F-A19D-F91CB09EC7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
   <si>
     <t>Command</t>
   </si>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1032,7 +1032,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -1046,7 +1048,9 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -1217,18 +1221,22 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
@@ -1635,7 +1643,7 @@
       </c>
       <c r="F58" s="11">
         <f xml:space="preserve"> ((COUNTA(B2:F56)) / (56 * 5))*100</f>
-        <v>28.928571428571431</v>
+        <v>30.357142857142854</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2D3F1-BD36-4A5F-A19D-F91CB09EC7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E95D21-E443-4EAB-91B6-B60568532910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
   <si>
     <t>Command</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t xml:space="preserve">Testing Progress : </t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -966,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C20:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1077,18 +1080,22 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
@@ -1161,18 +1168,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
@@ -1285,18 +1296,22 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
@@ -1341,10 +1356,12 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -1355,10 +1372,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -1555,7 +1574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1597,7 +1616,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -1605,7 +1624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1619,7 +1638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>57</v>
       </c>
@@ -1627,26 +1646,29 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
       <c r="E58" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F58" s="11">
         <f xml:space="preserve"> ((COUNTA(B2:F56)) / (56 * 5))*100</f>
-        <v>30.357142857142854</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+        <v>33.214285714285715</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E95D21-E443-4EAB-91B6-B60568532910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07010AC-BBE9-448D-B856-7D04B0BB2E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="162">
   <si>
     <t>Command</t>
   </si>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C20:C56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B39:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1022,7 +1022,9 @@
       <c r="B3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>93</v>
@@ -1064,18 +1066,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
@@ -1126,7 +1132,9 @@
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>93</v>
@@ -1207,7 +1215,9 @@
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -1221,7 +1231,9 @@
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -1255,7 +1267,9 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -1267,9 +1281,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -1280,24 +1296,18 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+      <c r="A24" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>86</v>
@@ -1306,58 +1316,64 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>68</v>
+      <c r="A26" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
-        <v>70</v>
+      <c r="A29" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3"/>
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>86</v>
@@ -1372,12 +1388,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -1389,7 +1403,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1403,47 +1417,50 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="3"/>
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>14</v>
+      <c r="A37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>88</v>
@@ -1456,41 +1473,43 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>88</v>
@@ -1505,7 +1524,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>88</v>
@@ -1513,14 +1532,13 @@
       <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>88</v>
@@ -1534,7 +1552,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -1548,7 +1566,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>88</v>
@@ -1562,7 +1580,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>88</v>
@@ -1576,7 +1594,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>88</v>
@@ -1590,7 +1608,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>88</v>
@@ -1604,73 +1622,59 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
+      <c r="A53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>86</v>
+      <c r="A54" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="E58" s="11" t="s">
+    <row r="57" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="E57" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="11">
-        <f xml:space="preserve"> ((COUNTA(B2:F56)) / (56 * 5))*100</f>
-        <v>33.214285714285715</v>
-      </c>
-      <c r="G58" s="11" t="s">
+      <c r="F57" s="11">
+        <f xml:space="preserve"> ((COUNTA(B2:F55)) / (56 * 5))*100</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07010AC-BBE9-448D-B856-7D04B0BB2E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4012D4B-E8C3-492D-BA65-E9E0ABAB0577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
   <si>
     <t>Command</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -598,18 +601,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -630,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -648,11 +645,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B39:B41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1012,7 +1006,9 @@
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1040,7 +1036,9 @@
       <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>93</v>
@@ -1056,7 +1054,9 @@
       <c r="B5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>93</v>
@@ -1112,7 +1112,9 @@
       <c r="B10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1122,7 +1124,9 @@
       <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1150,7 +1154,9 @@
       <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>93</v>
@@ -1166,7 +1172,9 @@
       <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>93</v>
@@ -1250,7 +1258,9 @@
       <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1260,7 +1270,9 @@
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1270,7 +1282,9 @@
       <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>93</v>
@@ -1322,7 +1336,9 @@
       <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>93</v>
@@ -1332,7 +1348,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="3"/>
@@ -1340,7 +1356,7 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="3"/>
@@ -1351,7 +1367,6 @@
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
@@ -1391,8 +1406,12 @@
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>93</v>
@@ -1405,8 +1424,12 @@
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>93</v>
@@ -1452,7 +1475,9 @@
       <c r="B37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>88</v>
@@ -1465,7 +1490,9 @@
       <c r="B38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>88</v>
@@ -1627,6 +1654,9 @@
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C51" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
@@ -1649,6 +1679,9 @@
       <c r="B53" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C53" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
@@ -1661,14 +1694,14 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <f xml:space="preserve"> ((COUNTA(B2:F55)) / (56 * 5))*100</f>
-        <v>35.714285714285715</v>
-      </c>
-      <c r="G57" s="11" t="s">
+        <v>42.5</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1808,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDBEC5-BA44-43C5-83E8-8F3FFC7E4ED1}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1819,82 +1852,85 @@
     <col min="1" max="1" width="104.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>152</v>
       </c>
@@ -1912,6 +1948,11 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1965,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1937,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF61201-8400-4A40-B3F4-F0499175D62E}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C17:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4012D4B-E8C3-492D-BA65-E9E0ABAB0577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED170058-D15B-480C-84E1-BAE9DC116B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
   <si>
     <t>Command</t>
   </si>
@@ -627,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -647,6 +647,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +967,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C6:C9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1072,7 +1075,9 @@
       <c r="B6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1082,7 +1087,9 @@
       <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1092,7 +1099,9 @@
       <c r="B8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1102,11 +1111,13 @@
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1118,7 +1129,7 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1130,7 +1141,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1148,7 +1159,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1166,7 +1177,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1190,7 +1201,9 @@
       <c r="B15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1200,17 +1213,21 @@
       <c r="B16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>93</v>
@@ -1220,13 +1237,15 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>93</v>
@@ -1236,13 +1255,15 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>93</v>
@@ -1270,9 +1291,7 @@
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1300,7 +1319,9 @@
       <c r="B23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>93</v>
@@ -1316,7 +1337,9 @@
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1326,7 +1349,9 @@
       <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1377,8 +1402,12 @@
       <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E30" s="3" t="s">
         <v>93</v>
       </c>
@@ -1393,8 +1422,12 @@
       <c r="B31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E31" s="3" t="s">
         <v>93</v>
       </c>
@@ -1465,7 +1498,9 @@
       <c r="B36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1699,7 +1734,7 @@
       </c>
       <c r="F57" s="10">
         <f xml:space="preserve"> ((COUNTA(B2:F55)) / (56 * 5))*100</f>
-        <v>42.5</v>
+        <v>48.214285714285715</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>161</v>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED170058-D15B-480C-84E1-BAE9DC116B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20369BCD-C595-4A45-90FA-72E0F672CE1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Commands" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
   <si>
     <t>Command</t>
   </si>
@@ -601,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -650,6 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1012,7 +1022,9 @@
       <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1024,7 +1036,9 @@
       <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
@@ -1042,7 +1056,9 @@
       <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>93</v>
       </c>
@@ -1060,7 +1076,9 @@
       <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>93</v>
       </c>
@@ -1078,7 +1096,9 @@
       <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
@@ -1090,7 +1110,9 @@
       <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
@@ -1102,7 +1124,9 @@
       <c r="C8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
@@ -1114,7 +1138,9 @@
       <c r="C9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
@@ -1126,7 +1152,12 @@
       <c r="C10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
@@ -1138,7 +1169,12 @@
       <c r="C11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
@@ -1150,7 +1186,9 @@
       <c r="C12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>93</v>
       </c>
@@ -1168,7 +1206,7 @@
       <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="3" t="s">
         <v>93</v>
       </c>
@@ -1186,7 +1224,9 @@
       <c r="C14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
@@ -1204,7 +1244,9 @@
       <c r="C15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
@@ -1216,7 +1258,9 @@
       <c r="C16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
@@ -1228,7 +1272,6 @@
       <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>93</v>
       </c>
@@ -1246,7 +1289,7 @@
       <c r="C18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
@@ -1264,7 +1307,7 @@
       <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
@@ -1282,7 +1325,7 @@
       <c r="C20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
@@ -1291,8 +1334,8 @@
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -1304,7 +1347,7 @@
       <c r="C22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="3" t="s">
         <v>93</v>
       </c>
@@ -1322,7 +1365,9 @@
       <c r="C23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>93</v>
       </c>
@@ -1340,7 +1385,7 @@
       <c r="C24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
@@ -1352,7 +1397,7 @@
       <c r="C25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -1364,7 +1409,9 @@
       <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>93</v>
       </c>
@@ -1376,17 +1423,17 @@
       <c r="A27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
@@ -1445,7 +1492,9 @@
       <c r="C32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>93</v>
       </c>
@@ -1463,7 +1512,7 @@
       <c r="C33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="3" t="s">
         <v>93</v>
       </c>
@@ -1481,7 +1530,7 @@
       <c r="C34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
@@ -1528,7 +1577,7 @@
       <c r="C38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="3" t="s">
         <v>88</v>
       </c>
@@ -1636,6 +1685,7 @@
       <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D47" s="13"/>
       <c r="E47" s="3" t="s">
         <v>88</v>
       </c>
@@ -1703,6 +1753,7 @@
       <c r="C52" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="3" t="s">
         <v>88</v>
       </c>
@@ -1717,6 +1768,9 @@
       <c r="C53" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="D53" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
@@ -1727,6 +1781,19 @@
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
       <c r="E57" s="10" t="s">
@@ -1734,7 +1801,7 @@
       </c>
       <c r="F57" s="10">
         <f xml:space="preserve"> ((COUNTA(B2:F55)) / (56 * 5))*100</f>
-        <v>48.214285714285715</v>
+        <v>56.785714285714285</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>161</v>
@@ -1879,7 +1946,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1933,6 +2000,9 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>157</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -2013,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF61201-8400-4A40-B3F4-F0499175D62E}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C17:C46"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20369BCD-C595-4A45-90FA-72E0F672CE1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BA3B2-5659-4F13-BEE7-5EE54F520976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Regular Commands" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
   <si>
     <t>Command</t>
   </si>
@@ -601,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,12 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -656,10 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1016,29 +1006,17 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
@@ -1050,15 +1028,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>93</v>
       </c>
@@ -1070,15 +1042,9 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>93</v>
       </c>
@@ -1090,71 +1056,41 @@
       <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>93</v>
       </c>
@@ -1163,15 +1099,9 @@
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="11"/>
       <c r="F11" s="3" t="s">
         <v>93</v>
       </c>
@@ -1180,15 +1110,9 @@
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="3" t="s">
         <v>93</v>
       </c>
@@ -1200,13 +1124,9 @@
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3" t="s">
         <v>93</v>
       </c>
@@ -1218,15 +1138,9 @@
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
@@ -1238,40 +1152,25 @@
       <c r="A15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="3" t="s">
         <v>93</v>
       </c>
@@ -1283,13 +1182,9 @@
       <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
@@ -1301,13 +1196,9 @@
       <c r="A19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="12"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
@@ -1319,35 +1210,25 @@
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3" t="s">
         <v>93</v>
       </c>
@@ -1359,15 +1240,9 @@
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3" t="s">
         <v>93</v>
       </c>
@@ -1379,39 +1254,25 @@
       <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3" t="s">
         <v>93</v>
       </c>
@@ -1423,38 +1284,32 @@
       <c r="A27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>93</v>
       </c>
@@ -1466,15 +1321,9 @@
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3" t="s">
         <v>93</v>
       </c>
@@ -1486,15 +1335,9 @@
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3" t="s">
         <v>93</v>
       </c>
@@ -1506,13 +1349,9 @@
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="3" t="s">
         <v>93</v>
       </c>
@@ -1524,13 +1363,9 @@
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
@@ -1538,19 +1373,15 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
@@ -1562,7 +1393,7 @@
       <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="3" t="s">
         <v>88</v>
       </c>
@@ -1577,7 +1408,7 @@
       <c r="C38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="3" t="s">
         <v>88</v>
       </c>
@@ -1685,7 +1516,7 @@
       <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="13"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="3" t="s">
         <v>88</v>
       </c>
@@ -1700,6 +1531,7 @@
       <c r="C48" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="3" t="s">
         <v>88</v>
       </c>
@@ -1714,6 +1546,7 @@
       <c r="C49" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="3" t="s">
         <v>88</v>
       </c>
@@ -1728,6 +1561,7 @@
       <c r="C50" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="3" t="s">
         <v>88</v>
       </c>
@@ -1736,12 +1570,9 @@
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
@@ -1753,7 +1584,7 @@
       <c r="C52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="13"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="3" t="s">
         <v>88</v>
       </c>
@@ -1762,32 +1593,23 @@
       <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="13"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="3" t="s">
         <v>88</v>
       </c>
@@ -1801,7 +1623,7 @@
       </c>
       <c r="F57" s="10">
         <f xml:space="preserve"> ((COUNTA(B2:F55)) / (56 * 5))*100</f>
-        <v>56.785714285714285</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>161</v>

--- a/HyperDbg-Testing Phase.xlsx
+++ b/HyperDbg-Testing Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Desktop\HyperDbg\testing-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BA3B2-5659-4F13-BEE7-5EE54F520976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E180AE7-AF35-473C-A432-B5D293EDB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{E4F2BB4D-4D91-4D08-B645-4A180C0E6C24}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
   <si>
     <t>Command</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>.sym</t>
+  </si>
+  <si>
+    <t>.sympath</t>
   </si>
 </sst>
 </file>
@@ -964,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87DE5E-1986-4A65-B106-D43404E2DB8E}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1590,48 +1596,76 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="8" t="s">
-        <v>57</v>
+      <c r="A53" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="11"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="9"/>
+      <c r="E54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
+      <c r="A55" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="E57" s="10" t="s">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="E59" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="10">
-        <f xml:space="preserve"> ((COUNTA(B2:F55)) / (56 * 5))*100</f>
-        <v>25.714285714285712</v>
-      </c>
-      <c r="G57" s="10" t="s">
+      <c r="F59" s="10">
+        <f xml:space="preserve"> ((COUNTA(B2:F57)) / (56 * 5))*100</f>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
